--- a/biology/Neurosciences/Ingrid_Scheffer/Ingrid_Scheffer.xlsx
+++ b/biology/Neurosciences/Ingrid_Scheffer/Ingrid_Scheffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingrid Scheffer, née le 21 décembre 1958 à Melbourne est une neuropédiatre australienne spécialisée dans la recherche en épileptologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingrid Scheffer, née le 21 décembre 1958 à Melbourne est une neuropédiatre australienne spécialisée dans la recherche en épileptologie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingrid Scheffer effectue ses études secondaires au Methodist Ladies' College (en) jusqu'en 1976. Elle obtient un Bachelor of Medicine, puis un Bachelor of Surgery en 1983 à l'université Monash. En 1998, elle achève un doctorat de neurologie à l'université de Melbourne.Elle dirige ses recherches au Florey Institute of Neuroscience and Mental Health (en). Elle fait plusieurs avancées majeures dans la recherche sur l'épilepsie, en trouvant notamment les gènes liés à cette affection neurologique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingrid Scheffer effectue ses études secondaires au Methodist Ladies' College (en) jusqu'en 1976. Elle obtient un Bachelor of Medicine, puis un Bachelor of Surgery en 1983 à l'université Monash. En 1998, elle achève un doctorat de neurologie à l'université de Melbourne.Elle dirige ses recherches au Florey Institute of Neuroscience and Mental Health (en). Elle fait plusieurs avancées majeures dans la recherche sur l'épilepsie, en trouvant notamment les gènes liés à cette affection neurologique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2012 : Prix L'Oréal - UNESCO : « Pour les Femmes et la Science », pour avoir identifié des gènes impliqués dans certaines formes d'épilepsie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012 : Prix L'Oréal - UNESCO : « Pour les Femmes et la Science », pour avoir identifié des gènes impliqués dans certaines formes d'épilepsie.
 2014 : Prime Minister's Prizes for Science (en), avec Samuel Berkovic (en), « for their contribution to the study of epilepsy, its diagnosis, management and treatment ».</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Berg, Anne T., et al. "Revised terminology and concepts for organization of seizures and epilepsies: report of the ILAE Commission on Classification and Terminology, 2005–2009." Epilepsia 51.4 (2010): 676-685.
 Steinlein, Ortrud K., et al. "A missense mutation in the neuronal nicotinic acetylcholine receptor α4 subunit is associated with autosomal dominant nocturnal frontal lobe epilepsy." Nature genetics 11.2 (1995): 201-203.
